--- a/数据整理/stocks/A股/科创板/688123-聚辰股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688123-聚辰股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,1053 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9437</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8648</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6981</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>050008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时第三产业成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3875</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3623</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>55.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>55.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688123-聚辰股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688123-聚辰股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.45</v>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1637,13 +1680,1373 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6797</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4133</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3068</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013949</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688123-聚辰股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688123-聚辰股份.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,46 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008734</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银施罗德科锐科技创新混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.62</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3990</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -542,6 +532,1392 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6797</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4133</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3068</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013949</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,13 +2961,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1642,1412 +3018,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001404</t>
+          <t>008734</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商移动互联网产业股票</t>
+          <t>交银施罗德科锐科技创新混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.20</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>84.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8294</t>
+          <t>0.3990</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006348</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华盛利混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.49</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6797</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001150</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通互联网传媒灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.95</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4133</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>506001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.12</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4067</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501082</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15.24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3536</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519606</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰金鑫股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3068</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008655</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2507</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000006</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>17.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.79</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2406</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009057</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.96</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.78</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2221</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008734</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>交银施罗德科锐科技创新混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>80.66</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2165</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>398011</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中海分红增利混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.97</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1949</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>506008</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长城科创两年定开混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>76.10</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1332</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>013949</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>交银施罗德科锐科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>80.66</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1156</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009058</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>83.78</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1140</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001541</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇添富民营新动力股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.05</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1109</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>013345</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富荣信息技术混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0935</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>202019</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>南方策略优化混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0918</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001728</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>银华战略新兴灵活配置定期开放混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0846</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009217</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>86.31</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0828</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008656</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0764</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>013346</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>富荣信息技术混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0684</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002213</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中海顺鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.79</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0582</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001255</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>长城改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>62.01</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0416</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>011228</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>89.79</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005844</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>东方人工智能主题混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.99</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>398031</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中海蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>78.37</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001574</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中海混改红利主题精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>010307</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>西藏东财信息产业精选混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>87.96</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001198</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>东方惠新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006557</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>海富通研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>002163</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>东方惠新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>012793</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>长城科创两年定开混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>76.10</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>009218</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>86.31</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>010308</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>西藏东财信息产业精选混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>87.96</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>006556</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>海富通研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.45</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688123-聚辰股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688123-聚辰股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>5.3</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>5.45</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -532,6 +549,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4658</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华盛利混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4504</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富策略增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013369</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015684</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华盛利混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013370</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1917,7 +2750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2961,7 +3794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688123-聚辰股份.xlsx
+++ b/数据整理/stocks/A股/科创板/688123-聚辰股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>3.05</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>5.3</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>5.45</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -549,6 +566,2220 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定开混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9740</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3874</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3867</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3590</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3554</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3394</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501186</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013108</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013107</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014703</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时时代领航混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015593</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009719</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014433</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>61.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009718</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014704</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时时代领航混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015491</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013040</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通欣润混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013039</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通欣润混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015147</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>017176</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014434</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>61.54</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1364,7 +3595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2750,7 +4981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3794,7 +6025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
